--- a/classification/droptc/bert-base-uncased/freeze/70681460/prediction.xlsx
+++ b/classification/droptc/bert-base-uncased/freeze/70681460/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.490662693977356</v>
+        <v>0.5572996139526367</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6873584985733032</v>
+        <v>0.5759198069572449</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7566469311714172</v>
+        <v>0.8049326539039612</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7200934290885925</v>
+        <v>0.3662691414356232</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5671968460083008</v>
+        <v>0.6378893852233887</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.8404825925827026</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6259039044380188</v>
+        <v>0.7541019916534424</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5971357822418213</v>
+        <v>0.6082128882408142</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9045897126197815</v>
+        <v>0.5539098978042603</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7189790606498718</v>
+        <v>0.3649965822696686</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7922397255897522</v>
+        <v>0.6411926746368408</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8294130563735962</v>
+        <v>0.916085422039032</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7710443139076233</v>
+        <v>0.631219208240509</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.7084541320800781</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3423899710178375</v>
+        <v>0.3473041355609894</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5971357822418213</v>
+        <v>0.5838325619697571</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4121190905570984</v>
+        <v>0.6887040734291077</v>
       </c>
     </row>
     <row r="19">
@@ -954,7 +954,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.3972648084163666</v>
       </c>
     </row>
     <row r="20">
@@ -982,7 +982,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.4096468091011047</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.858244001865387</v>
+        <v>0.7513277530670166</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3306435942649841</v>
+        <v>0.7168267965316772</v>
       </c>
     </row>
     <row r="23">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.353993684053421</v>
+        <v>0.8008802533149719</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5484864711761475</v>
+        <v>0.7896695137023926</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5361296534538269</v>
+        <v>0.7659464478492737</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.8305611610412598</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9107267260551453</v>
+        <v>0.7183810472488403</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9346122145652771</v>
+        <v>0.3868145942687988</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.882060706615448</v>
+        <v>0.8392122387886047</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8114169239997864</v>
+        <v>0.9188004732131958</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7483063340187073</v>
+        <v>0.6795210242271423</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7081098556518555</v>
+        <v>0.7452185750007629</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.897392213344574</v>
+        <v>0.4487373530864716</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.6511310935020447</v>
       </c>
     </row>
     <row r="35">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.4378355741500854</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8044729828834534</v>
+        <v>0.6287868022918701</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7045561671257019</v>
+        <v>0.9380141496658325</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7929969429969788</v>
+        <v>0.4627045691013336</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8707226514816284</v>
+        <v>0.8811879754066467</v>
       </c>
     </row>
     <row r="40">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.670402467250824</v>
+        <v>0.3335369229316711</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5718258023262024</v>
+        <v>0.8343016505241394</v>
       </c>
     </row>
     <row r="42">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6284987926483154</v>
+        <v>0.6966346502304077</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4069806933403015</v>
+        <v>0.4752891361713409</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7054246068000793</v>
+        <v>0.9102373123168945</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.471246600151062</v>
+        <v>0.5404382348060608</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8250665068626404</v>
+        <v>0.6817763447761536</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6737126708030701</v>
+        <v>0.7192351222038269</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6288363337516785</v>
+        <v>0.7569804787635803</v>
       </c>
     </row>
     <row r="49">
@@ -1799,14 +1799,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3319239020347595</v>
+        <v>0.3044884502887726</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6519913673400879</v>
+        <v>0.6314957737922668</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6126035451889038</v>
+        <v>0.5847933292388916</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8335769772529602</v>
+        <v>0.4110227227210999</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4078623354434967</v>
+        <v>0.4598283469676971</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6440590023994446</v>
+        <v>0.916085422039032</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.610332727432251</v>
+        <v>0.7154307961463928</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6725332140922546</v>
+        <v>0.4789913892745972</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6209896802902222</v>
+        <v>0.6618019938468933</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2746850550174713</v>
+        <v>0.2743216753005981</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8586931824684143</v>
+        <v>0.5991873145103455</v>
       </c>
     </row>
     <row r="60">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.916085422039032</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6260229349136353</v>
+        <v>0.3446225523948669</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6803908348083496</v>
+        <v>0.7942111492156982</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7562181949615479</v>
+        <v>0.7349547147750854</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.882060706615448</v>
+        <v>0.7041766047477722</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3601167798042297</v>
+        <v>0.3473041355609894</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.834709644317627</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.7852095365524292</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6518977880477905</v>
+        <v>0.7402628660202026</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6540703177452087</v>
+        <v>0.7166326642036438</v>
       </c>
     </row>
     <row r="70">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8370208740234375</v>
+        <v>0.4737013280391693</v>
       </c>
     </row>
     <row r="71">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7261727452278137</v>
+        <v>0.4471608102321625</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7938928008079529</v>
+        <v>0.6991747617721558</v>
       </c>
     </row>
     <row r="73">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7410008311271667</v>
+        <v>0.5921919345855713</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6685434579849243</v>
+        <v>0.942074179649353</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9038986563682556</v>
+        <v>0.6257631778717041</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7260522246360779</v>
+        <v>0.3129462599754333</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7317559719085693</v>
+        <v>0.6414998769760132</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8463159203529358</v>
+        <v>0.6869165897369385</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8536593317985535</v>
+        <v>0.8539359569549561</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.8053211569786072</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7989922165870667</v>
+        <v>0.815372109413147</v>
       </c>
     </row>
     <row r="82">
@@ -2723,14 +2723,14 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4271019101142883</v>
+        <v>0.3335565328598022</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.557959258556366</v>
+        <v>0.6364213228225708</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7149141430854797</v>
+        <v>0.7558783292770386</v>
       </c>
     </row>
     <row r="85">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3268075287342072</v>
+        <v>0.8784850239753723</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6917718648910522</v>
+        <v>0.5553761720657349</v>
       </c>
     </row>
     <row r="87">
@@ -2863,14 +2863,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8272379636764526</v>
+        <v>0.5446329116821289</v>
       </c>
     </row>
     <row r="88">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6623983979225159</v>
+        <v>0.5282922387123108</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.6412331461906433</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.3649965822696686</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8752297759056091</v>
+        <v>0.916085422039032</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4321354329586029</v>
+        <v>0.8322001099586487</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7834616303443909</v>
+        <v>0.5843071341514587</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9608252644538879</v>
+        <v>0.7246798276901245</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8118965625762939</v>
+        <v>0.3900771737098694</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5722142457962036</v>
+        <v>0.7278753519058228</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6983257532119751</v>
+        <v>0.4686496257781982</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7483063340187073</v>
+        <v>0.8811879754066467</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5755126476287842</v>
+        <v>0.7107812166213989</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7096242904663086</v>
+        <v>0.7259779572486877</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5067138671875</v>
+        <v>0.6900058388710022</v>
       </c>
     </row>
     <row r="102">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3287,10 +3287,10 @@
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7074151635169983</v>
+        <v>0.5030068159103394</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.457660973072052</v>
+        <v>0.6781262755393982</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7476043701171875</v>
+        <v>0.6140455603599548</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7846715450286865</v>
+        <v>0.7955422401428223</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8260906934738159</v>
+        <v>0.321119487285614</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5762776732444763</v>
+        <v>0.5861425399780273</v>
       </c>
     </row>
     <row r="108">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5828590989112854</v>
+        <v>0.8605198264122009</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3319239020347595</v>
+        <v>0.4245046675205231</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.4207332730293274</v>
+        <v>0.7272929549217224</v>
       </c>
     </row>
     <row r="111">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6926071047782898</v>
+        <v>0.4259921312332153</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.7269712686538696</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5328977704048157</v>
+        <v>0.7910099029541016</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3043346703052521</v>
+        <v>0.7052709460258484</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.8117660284042358</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8068639636039734</v>
+        <v>0.7465561628341675</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6652425527572632</v>
+        <v>0.9380141496658325</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3175888359546661</v>
+        <v>0.5363743901252747</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6620946526527405</v>
+        <v>0.916085422039032</v>
       </c>
     </row>
     <row r="120">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8647841811180115</v>
+        <v>0.6321532726287842</v>
       </c>
     </row>
     <row r="121">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7614847421646118</v>
+        <v>0.5573751926422119</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3705701231956482</v>
+        <v>0.4627045691013336</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.797533392906189</v>
+        <v>0.6355348825454712</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9018098115921021</v>
+        <v>0.4074895679950714</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3153397142887115</v>
+        <v>0.76479172706604</v>
       </c>
     </row>
     <row r="126">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="E126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7293035984039307</v>
+        <v>0.6188133955001831</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.6006189584732056</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7714985013008118</v>
+        <v>0.7051866054534912</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5525924563407898</v>
+        <v>0.756838321685791</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6111173629760742</v>
+        <v>0.8953008055686951</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3454103469848633</v>
+        <v>0.7200384140014648</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7970415353775024</v>
+        <v>0.4437556564807892</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.784224808216095</v>
+        <v>0.3662691414356232</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7282664179801941</v>
+        <v>0.916085422039032</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8868401646614075</v>
+        <v>0.875640869140625</v>
       </c>
     </row>
     <row r="136">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3454103469848633</v>
+        <v>0.916085422039032</v>
       </c>
     </row>
     <row r="137">
@@ -4263,14 +4263,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5518166422843933</v>
+        <v>0.4177441000938416</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.759843647480011</v>
+        <v>0.5845363736152649</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8573207855224609</v>
+        <v>0.781057596206665</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3697643876075745</v>
+        <v>0.4627045691013336</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7601314783096313</v>
+        <v>0.580502450466156</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5919524431228638</v>
+        <v>0.916085422039032</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.7240288257598877</v>
+        <v>0.5395827889442444</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9049091935157776</v>
+        <v>0.7258282899856567</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.379835844039917</v>
+        <v>0.819155216217041</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4246189892292023</v>
+        <v>0.3900771737098694</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.3601167798042297</v>
+        <v>0.7835018038749695</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4576249718666077</v>
+        <v>0.6023385524749756</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.6355348825454712</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.3433354496955872</v>
+        <v>0.4103138148784637</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6579011678695679</v>
+        <v>0.704833447933197</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7369323968887329</v>
+        <v>0.4145733118057251</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7374277710914612</v>
+        <v>0.6487730145454407</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7626975774765015</v>
+        <v>0.6812681555747986</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3801847696304321</v>
+        <v>0.6465693712234497</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6145060062408447</v>
+        <v>0.9074839949607849</v>
       </c>
     </row>
     <row r="157">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4827,10 +4827,10 @@
         </is>
       </c>
       <c r="E157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7255806922912598</v>
+        <v>0.3335369229316711</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8444327712059021</v>
+        <v>0.916085422039032</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4688326120376587</v>
+        <v>0.7760841250419617</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5629863142967224</v>
+        <v>0.6355348825454712</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5346721410751343</v>
+        <v>0.4701653718948364</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9301773309707642</v>
+        <v>0.4378355741500854</v>
       </c>
     </row>
     <row r="163">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6674061417579651</v>
+        <v>0.6307673454284668</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.68412184715271</v>
+        <v>0.7513277530670166</v>
       </c>
     </row>
     <row r="165">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6451618075370789</v>
+        <v>0.3473041355609894</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.6269026398658752</v>
+        <v>0.9618036150932312</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7140589952468872</v>
+        <v>0.4381885528564453</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4703140556812286</v>
+        <v>0.3289446830749512</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8616759777069092</v>
+        <v>0.4360813498497009</v>
       </c>
     </row>
     <row r="170">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.3423899710178375</v>
+        <v>0.7378104329109192</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.437300056219101</v>
+        <v>0.9254816174507141</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8192811012268066</v>
+        <v>0.9431449174880981</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3000292479991913</v>
+        <v>0.4983090460300446</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8341501951217651</v>
+        <v>0.8515202403068542</v>
       </c>
     </row>
     <row r="175">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="E175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5952574014663696</v>
+        <v>0.446492999792099</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5513302087783813</v>
+        <v>0.8031006455421448</v>
       </c>
     </row>
     <row r="177">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7109676003456116</v>
+        <v>0.5368666648864746</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.6566407680511475</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6451894044876099</v>
+        <v>0.6812636852264404</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.3085410296916962</v>
+        <v>0.7097562551498413</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.3098060488700867</v>
+        <v>0.8045546412467957</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.732082724571228</v>
+        <v>0.8730629682540894</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3678449988365173</v>
+        <v>0.7647756338119507</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.6134681701660156</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.7610421776771545</v>
+        <v>0.7480660676956177</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4783370792865753</v>
+        <v>0.8934857249259949</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5014992952346802</v>
+        <v>0.5843071341514587</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8508758544921875</v>
+        <v>0.4122144281864166</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.4752891361713409</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4298675954341888</v>
+        <v>0.8863704204559326</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8011881113052368</v>
+        <v>0.4794859290122986</v>
       </c>
     </row>
     <row r="192">
@@ -5803,14 +5803,14 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.4789687097072601</v>
+        <v>0.3798678517341614</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6837407350540161</v>
+        <v>0.8218430876731873</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.3759119808673859</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.5662136673927307</v>
+        <v>0.8531033396720886</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.829389750957489</v>
+        <v>0.8703188896179199</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6992573142051697</v>
+        <v>0.6508728861808777</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9329718351364136</v>
+        <v>0.4752891361713409</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4429530799388885</v>
+        <v>0.4844563007354736</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7625828385353088</v>
+        <v>0.8405776023864746</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.453845888376236</v>
+        <v>0.6103270053863525</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6824764609336853</v>
+        <v>0.386337012052536</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.7524481415748596</v>
+        <v>0.6147732138633728</v>
       </c>
     </row>
     <row r="204">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4703140556812286</v>
+        <v>0.2700072228908539</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8830776214599609</v>
+        <v>0.7239340543746948</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.6041008830070496</v>
+        <v>0.8831042051315308</v>
       </c>
     </row>
     <row r="207">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.3361645042896271</v>
+        <v>0.7444813847541809</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7532668113708496</v>
+        <v>0.7605624794960022</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9346122145652771</v>
+        <v>0.8228508234024048</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.7079700827598572</v>
+        <v>0.4338067471981049</v>
       </c>
     </row>
   </sheetData>
